--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1701,10 +1725,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1748,28 +1772,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="3">
+      <c r="A56" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="3">
+      <c r="B56" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="3">
+      <c r="C56" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D56" t="s" s="3">
+      <c r="D56" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="3">
+      <c r="F56" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="3">
+      <c r="G56" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="3">
+      <c r="H56" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1794,28 +1818,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="3">
+      <c r="C58" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="3">
+      <c r="D58" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="3">
+      <c r="I58" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2831,10 +2855,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="3" t="s">
+      <c r="K93" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2878,28 +2902,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="3">
+      <c r="A95" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="3">
+      <c r="B95" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="3">
+      <c r="C95" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D95" t="s" s="3">
+      <c r="D95" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="3">
+      <c r="F95" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="3">
+      <c r="G95" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="3">
+      <c r="H95" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2924,28 +2948,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="3">
+      <c r="B97" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="3">
+      <c r="C97" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="3">
+      <c r="D97" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="3">
+      <c r="E97" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="3">
+      <c r="F97" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="3">
+      <c r="G97" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="3">
+      <c r="H97" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="3">
+      <c r="I97" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3120,10 +3144,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="J103" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K103" s="3" t="s">
+      <c r="K103" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3167,28 +3191,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="3">
+      <c r="A105" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="3">
+      <c r="B105" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="3">
+      <c r="C105" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D105" t="s" s="3">
+      <c r="D105" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="3">
+      <c r="F105" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="3">
+      <c r="G105" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="3">
+      <c r="H105" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3213,28 +3237,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="3">
+      <c r="B107" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="3">
+      <c r="C107" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="3">
+      <c r="D107" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="F107" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="3">
+      <c r="G107" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="3">
+      <c r="H107" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="3">
+      <c r="I107" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3438,10 +3462,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="J114" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K114" s="3" t="s">
+      <c r="K114" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3485,28 +3509,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="3">
+      <c r="A116" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="3">
+      <c r="B116" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="3">
+      <c r="C116" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D116" t="s" s="3">
+      <c r="D116" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="3">
+      <c r="F116" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="3">
+      <c r="G116" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="3">
+      <c r="H116" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3531,28 +3555,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="3">
+      <c r="B118" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="3">
+      <c r="C118" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="3">
+      <c r="D118" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="3">
+      <c r="F118" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="3">
+      <c r="G118" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="3">
+      <c r="H118" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="3">
+      <c r="I118" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3756,10 +3780,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="J125" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="3" t="s">
+      <c r="K125" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3803,28 +3827,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="3">
+      <c r="A127" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="3">
+      <c r="B127" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="3">
+      <c r="C127" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="3">
+      <c r="D127" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="3">
+      <c r="F127" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="3">
+      <c r="G127" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="3">
+      <c r="H127" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3849,28 +3873,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="3">
+      <c r="C129" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="3">
+      <c r="D129" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="3">
+      <c r="I129" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3929,10 +3953,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="3" t="s">
+      <c r="J131" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="3" t="s">
+      <c r="K131" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
